--- a/tests.xlsx
+++ b/tests.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://patesgs-my.sharepoint.com/personal/16adaniels_patesgs_org/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYBER\Documents\enigma_rewrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D653F7B-DB0C-4C5F-93CB-3EAC73D177A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>Data input</t>
   </si>
@@ -65,9 +66,6 @@
     <t>Direct to rotor VIII</t>
   </si>
   <si>
-    <t>Borderline</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -201,12 +199,36 @@
   </si>
   <si>
     <t>ZFTKDXSHQJZSM</t>
+  </si>
+  <si>
+    <t>Plugged phrase encrypt</t>
+  </si>
+  <si>
+    <t>I, II, III, position 1,1,1 ring 1,1,1, plugboard "AB CD EF GH IJ KL MN OP QR ST", "HELLOWORLD"</t>
+  </si>
+  <si>
+    <t>XLNGIBJPTF</t>
+  </si>
+  <si>
+    <t>VII,II,V, position 2,19,18 ring 25, 7, 12 plugboard "EX ST FP AN", "LAZYDOGJUMPS"</t>
+  </si>
+  <si>
+    <t>KQWSIIDCDTYZ</t>
+  </si>
+  <si>
+    <t>4 Machine full phrase encryption</t>
+  </si>
+  <si>
+    <t>Beta, IV, V, VIII, position 3,17,23,11 rings 8,9,3,4 plugboard "JK FR BE IP ZS AW", "QUICKBROWNFOX"</t>
+  </si>
+  <si>
+    <t>JFVKFEBWKTRTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,25 +554,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="82.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -562,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -570,49 +592,49 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -626,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -637,38 +659,38 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -679,189 +701,231 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -870,6 +934,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0F9A68B3510FC45A11590C2444AFC09" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3635bcfce28ab2651bd28c192aac4e9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8b6c368b-2363-4c1a-a283-299128685c3f" xmlns:ns4="ed3e678a-6967-47a7-b0f6-00d0625ea2d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a509d6c478ff4b0014bad95ec56d8d45" ns3:_="" ns4:_="">
     <xsd:import namespace="8b6c368b-2363-4c1a-a283-299128685c3f"/>
@@ -1080,15 +1153,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1096,6 +1160,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E2E5FC-1C4C-48E6-8BB1-6310242FBDC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48BEB5EF-6D52-4785-8095-54DDC08B7DE3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1110,14 +1182,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E2E5FC-1C4C-48E6-8BB1-6310242FBDC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
